--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value855.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value855.xlsx
@@ -354,7 +354,7 @@
         <v>1.998896208445467</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.919074458475978</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value855.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value855.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9763892501817784</v>
+        <v>0.6697832942008972</v>
       </c>
       <c r="B1">
-        <v>1.998896208445467</v>
+        <v>1.42131519317627</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.619668245315552</v>
       </c>
       <c r="D1">
-        <v>1.919074458475978</v>
+        <v>3.069816589355469</v>
       </c>
       <c r="E1">
-        <v>1.28045229338391</v>
+        <v>1.747338056564331</v>
       </c>
     </row>
   </sheetData>
